--- a/plot.xlsx
+++ b/plot.xlsx
@@ -52,10 +52,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -63,6 +62,1199 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$1:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$1:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$1:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>54.545454550000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.089108909999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.917525769999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.041237109999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.612244899999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.5959596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.524752479999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.737373739999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.555555560000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.268041240000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58.695652170000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.421052629999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.434343429999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79.797979799999993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.434782609</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55.555555560000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.510204079999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.1632653059999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.1855670099999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50.505050509999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$1:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5.050505051</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9702970299999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0618556699999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0927835049999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0408163269999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0202020200000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9207920789999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0101010100000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7777777779999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.40206186</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6956521739999992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.84210526</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.14141414</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0202020200000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.739130429999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0303030299999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0408163269999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.58762887</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.15151515</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$1:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>40.4040404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9405940590000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.711340209999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.804123709999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.26530612</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.38383838</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.564356439999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.252525250000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.222222219999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.329896910000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.347826090000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.473684210000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.39393939</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.171717170000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.565217390000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41.414141409999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.408163269999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89.795918369999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64.948453610000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.3030303</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$1:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.30927835</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0618556699999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0816326529999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99009901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.444444440000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2608695650000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.263157895</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0303030299999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0101010100000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2608695650000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0816326529999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.2783505149999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.0404040400000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$1:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="121460992"/>
+        <c:axId val="121466880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="121460992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121466880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="121466880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121460992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>899160</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,287 +1542,1008 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection sqref="A1:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1">
-        <v>54.545454545454497</v>
+        <v>50</v>
       </c>
       <c r="B1">
-        <v>40.404040404040401</v>
-      </c>
-      <c r="C1" s="2">
+        <v>50</v>
+      </c>
+      <c r="C1">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>9</v>
+      </c>
+      <c r="E1">
+        <v>13</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>19</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>54.545454550000002</v>
+      </c>
+      <c r="J1">
+        <v>5.050505051</v>
+      </c>
+      <c r="K1">
+        <v>40.4040404</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
         <v>90</v>
       </c>
-      <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2">
-        <v>91.089108910891099</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="B2">
-        <v>5.9405940594059397</v>
-      </c>
-      <c r="C2" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>91.089108909999993</v>
+      </c>
+      <c r="J2">
+        <v>2.9702970299999998</v>
+      </c>
+      <c r="K2">
+        <v>5.9405940590000004</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3">
-        <v>63.917525773195798</v>
+        <v>18.75</v>
       </c>
       <c r="B3">
-        <v>23.711340206185501</v>
-      </c>
-      <c r="C3" s="1">
+        <v>81.25</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>63.917525769999997</v>
+      </c>
+      <c r="J3">
+        <v>2.0618556699999999</v>
+      </c>
+      <c r="K3">
+        <v>23.711340209999999</v>
+      </c>
+      <c r="L3">
+        <v>10.30927835</v>
+      </c>
+      <c r="M3">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4">
-        <v>68.041237113402005</v>
+        <v>80</v>
       </c>
       <c r="B4">
-        <v>26.8041237113402</v>
-      </c>
-      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>68.041237109999997</v>
+      </c>
+      <c r="J4">
+        <v>3.0927835049999999</v>
+      </c>
+      <c r="K4">
+        <v>26.804123709999999</v>
+      </c>
+      <c r="L4">
+        <v>2.0618556699999999</v>
+      </c>
+      <c r="M4">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>54</v>
       </c>
-      <c r="B5">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>45</v>
       </c>
-      <c r="C5" s="1">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6">
-        <v>80.612244897959101</v>
+        <v>90</v>
       </c>
       <c r="B6">
-        <v>13.2653061224489</v>
-      </c>
-      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>80.612244899999993</v>
+      </c>
+      <c r="J6">
+        <v>2.0408163269999999</v>
+      </c>
+      <c r="K6">
+        <v>13.26530612</v>
+      </c>
+      <c r="L6">
+        <v>4.0816326529999998</v>
+      </c>
+      <c r="M6">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7">
-        <v>59.595959595959499</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>38.383838383838302</v>
-      </c>
-      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>59.5959596</v>
+      </c>
+      <c r="J7">
+        <v>2.0202020200000002</v>
+      </c>
+      <c r="K7">
+        <v>38.38383838</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8">
-        <v>47.524752475247503</v>
+        <v>11.7</v>
       </c>
       <c r="B8">
-        <v>43.564356435643496</v>
-      </c>
-      <c r="C8" s="1">
+        <v>88.3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>47.524752479999997</v>
+      </c>
+      <c r="J8">
+        <v>7.9207920789999999</v>
+      </c>
+      <c r="K8">
+        <v>43.564356439999997</v>
+      </c>
+      <c r="L8">
+        <v>0.99009901</v>
+      </c>
+      <c r="M8">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="A9">
-        <v>73.737373737373701</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>25.252525252525199</v>
-      </c>
-      <c r="C9" s="1">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>73.737373739999995</v>
+      </c>
+      <c r="J9">
+        <v>1.0101010100000001</v>
+      </c>
+      <c r="K9">
+        <v>25.252525250000001</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="A10">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>54</v>
       </c>
-      <c r="B10">
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
         <v>43</v>
       </c>
-      <c r="C10" s="1">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:13">
       <c r="A11">
-        <v>55.5555555555555</v>
+        <v>85</v>
       </c>
       <c r="B11">
-        <v>22.2222222222222</v>
-      </c>
-      <c r="C11" s="1">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>55.555555560000002</v>
+      </c>
+      <c r="J11">
+        <v>2.7777777779999999</v>
+      </c>
+      <c r="K11">
+        <v>22.222222219999999</v>
+      </c>
+      <c r="L11">
+        <v>19.444444440000002</v>
+      </c>
+      <c r="M11">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:13">
       <c r="A12">
-        <v>42.268041237113401</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>44.329896907216401</v>
-      </c>
-      <c r="C12" s="1">
+        <v>77</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>42.268041240000002</v>
+      </c>
+      <c r="J12">
+        <v>13.40206186</v>
+      </c>
+      <c r="K12">
+        <v>44.329896910000002</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:13">
       <c r="A13">
-        <v>58.695652173912997</v>
+        <v>100</v>
       </c>
       <c r="B13">
-        <v>29.347826086956498</v>
-      </c>
-      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>58.695652170000002</v>
+      </c>
+      <c r="J13">
+        <v>8.6956521739999992</v>
+      </c>
+      <c r="K13">
+        <v>29.347826090000002</v>
+      </c>
+      <c r="L13">
+        <v>3.2608695650000001</v>
+      </c>
+      <c r="M13">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:13">
       <c r="A14">
-        <v>28.421052631578899</v>
+        <v>75</v>
       </c>
       <c r="B14">
-        <v>49.473684210526301</v>
-      </c>
-      <c r="C14" s="1">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
         <v>5</v>
       </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>28.421052629999998</v>
+      </c>
+      <c r="J14">
+        <v>16.84210526</v>
+      </c>
+      <c r="K14">
+        <v>49.473684210000002</v>
+      </c>
+      <c r="L14">
+        <v>5.263157895</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:13">
       <c r="A15">
-        <v>43.434343434343397</v>
+        <v>60</v>
       </c>
       <c r="B15">
-        <v>39.393939393939299</v>
-      </c>
-      <c r="C15" s="1">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>43.434343429999998</v>
+      </c>
+      <c r="J15">
+        <v>14.14141414</v>
+      </c>
+      <c r="K15">
+        <v>39.39393939</v>
+      </c>
+      <c r="L15">
+        <v>3.0303030299999998</v>
+      </c>
+      <c r="M15">
         <v>25</v>
       </c>
-      <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:13">
       <c r="A16">
-        <v>79.797979797979806</v>
+        <v>75</v>
       </c>
       <c r="B16">
-        <v>17.171717171717098</v>
-      </c>
-      <c r="C16" s="1">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>79.797979799999993</v>
+      </c>
+      <c r="J16">
+        <v>2.0202020200000002</v>
+      </c>
+      <c r="K16">
+        <v>17.171717170000001</v>
+      </c>
+      <c r="L16">
+        <v>1.0101010100000001</v>
+      </c>
+      <c r="M16">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:13">
       <c r="A17">
-        <v>5.4347826086956497</v>
+        <v>91</v>
       </c>
       <c r="B17">
-        <v>69.565217391304301</v>
-      </c>
-      <c r="C17" s="1">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>5.434782609</v>
+      </c>
+      <c r="J17">
+        <v>21.739130429999999</v>
+      </c>
+      <c r="K17">
+        <v>69.565217390000001</v>
+      </c>
+      <c r="L17">
+        <v>3.2608695650000001</v>
+      </c>
+      <c r="M17">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:13">
       <c r="A18">
-        <v>55.5555555555555</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="B18">
-        <v>41.414141414141397</v>
-      </c>
-      <c r="C18" s="1">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>55.555555560000002</v>
+      </c>
+      <c r="J18">
+        <v>3.0303030299999998</v>
+      </c>
+      <c r="K18">
+        <v>41.414141409999999</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:13">
       <c r="A19">
-        <v>75.510204081632594</v>
+        <v>56</v>
       </c>
       <c r="B19">
-        <v>20.408163265306101</v>
-      </c>
-      <c r="C19" s="1">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>75.510204079999994</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>20.408163269999999</v>
+      </c>
+      <c r="L19">
+        <v>4.0816326529999998</v>
+      </c>
+      <c r="M19">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:13">
       <c r="A20">
-        <v>8.1632653061224492</v>
+        <v>63</v>
       </c>
       <c r="B20">
-        <v>89.7959183673469</v>
-      </c>
-      <c r="C20" s="1">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>8.1632653059999996</v>
+      </c>
+      <c r="J20">
+        <v>2.0408163269999999</v>
+      </c>
+      <c r="K20">
+        <v>89.795918369999995</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:13">
       <c r="A21">
-        <v>6.1855670103092697</v>
+        <v>95</v>
       </c>
       <c r="B21">
-        <v>64.948453608247405</v>
-      </c>
-      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>6.1855670099999998</v>
+      </c>
+      <c r="J21">
+        <v>19.58762887</v>
+      </c>
+      <c r="K21">
+        <v>64.948453610000001</v>
+      </c>
+      <c r="L21">
+        <v>9.2783505149999996</v>
+      </c>
+      <c r="M21">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:13">
       <c r="A22">
-        <v>50.505050505050498</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>30.303030303030301</v>
-      </c>
-      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>50.505050509999997</v>
+      </c>
+      <c r="J22">
+        <v>15.15151515</v>
+      </c>
+      <c r="K22">
+        <v>30.3030303</v>
+      </c>
+      <c r="L22">
+        <v>4.0404040400000003</v>
+      </c>
+      <c r="M22">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:13">
       <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>10</v>
       </c>
-      <c r="B23">
+      <c r="J23">
+        <v>35</v>
+      </c>
+      <c r="K23">
         <v>25</v>
       </c>
-      <c r="C23" s="1">
+      <c r="L23">
+        <v>30</v>
+      </c>
+      <c r="M23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:13">
       <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>50</v>
       </c>
-      <c r="B24">
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
         <v>43</v>
       </c>
-      <c r="C24" s="1">
-        <v>90</v>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/plot.xlsx
+++ b/plot.xlsx
@@ -15,9 +15,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>total  weekends</t>
+  </si>
+  <si>
+    <t>total workdays</t>
+  </si>
+  <si>
+    <t>%weekend</t>
+  </si>
+  <si>
+    <t>%workdays</t>
+  </si>
+  <si>
+    <t>cons</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,6 +50,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,9 +77,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -62,1199 +88,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$1:$A$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$B$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>88.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>81.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$1:$C$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$1:$D$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$1:$E$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$1:$F$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$1:$G$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$1:$H$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$1:$I$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>54.545454550000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>91.089108909999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>63.917525769999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>68.041237109999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>80.612244899999993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>59.5959596</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>47.524752479999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>73.737373739999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55.555555560000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42.268041240000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>58.695652170000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28.421052629999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43.434343429999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>79.797979799999993</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.434782609</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>55.555555560000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>75.510204079999994</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.1632653059999996</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.1855670099999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>50.505050509999997</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$1:$J$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>5.050505051</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9702970299999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0618556699999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0927835049999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0408163269999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0202020200000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.9207920789999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0101010100000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7777777779999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.40206186</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.6956521739999992</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.84210526</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.14141414</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.0202020200000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21.739130429999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.0303030299999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.0408163269999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19.58762887</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15.15151515</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$1:$K$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>40.4040404</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.9405940590000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.711340209999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.804123709999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.26530612</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>38.38383838</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43.564356439999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.252525250000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22.222222219999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44.329896910000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.347826090000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>49.473684210000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>39.39393939</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17.171717170000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>69.565217390000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>41.414141409999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20.408163269999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89.795918369999995</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>64.948453610000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>30.3030303</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$1:$L$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.30927835</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0618556699999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0816326529999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.99009901</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.444444440000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2608695650000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.263157895</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.0303030299999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0101010100000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.2608695650000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.0816326529999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.2783505149999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.0404040400000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$M$1:$M$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="121460992"/>
-        <c:axId val="121466880"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="121460992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121466880"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="121466880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121460992"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>899160</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1542,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:M24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1554,6 +387,15 @@
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="17.44140625" customWidth="1"/>
+    <col min="18" max="19" width="16.5546875" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
+    <col min="21" max="21" width="18.21875" customWidth="1"/>
+    <col min="22" max="22" width="17.6640625" customWidth="1"/>
+    <col min="23" max="23" width="19.77734375" customWidth="1"/>
+    <col min="24" max="24" width="20.33203125" customWidth="1"/>
+    <col min="25" max="25" width="13.5546875" customWidth="1"/>
+    <col min="26" max="26" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2212,7 +1054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:24">
       <c r="A17">
         <v>91</v>
       </c>
@@ -2253,7 +1095,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:24">
       <c r="A18">
         <v>18.100000000000001</v>
       </c>
@@ -2294,7 +1136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:24">
       <c r="A19">
         <v>56</v>
       </c>
@@ -2335,7 +1177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:24">
       <c r="A20">
         <v>63</v>
       </c>
@@ -2376,7 +1218,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:24">
       <c r="A21">
         <v>95</v>
       </c>
@@ -2417,7 +1259,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:24">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2458,7 +1300,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:24">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2499,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:24">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2538,12 +1380,734 @@
       </c>
       <c r="M24">
         <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>42</v>
+      </c>
+      <c r="E29">
+        <v>23</v>
+      </c>
+      <c r="F29">
+        <v>76</v>
+      </c>
+      <c r="G29">
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <v>76</v>
+      </c>
+      <c r="I29">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>78</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>87</v>
+      </c>
+      <c r="G30">
+        <v>14</v>
+      </c>
+      <c r="H30">
+        <v>87</v>
+      </c>
+      <c r="I30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <v>34</v>
+      </c>
+      <c r="F31">
+        <v>63</v>
+      </c>
+      <c r="G31">
+        <v>34</v>
+      </c>
+      <c r="H31">
+        <v>63</v>
+      </c>
+      <c r="I31">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>58</v>
+      </c>
+      <c r="E32">
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <v>79</v>
+      </c>
+      <c r="G32">
+        <v>18</v>
+      </c>
+      <c r="H32">
+        <v>79</v>
+      </c>
+      <c r="I32">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>42</v>
+      </c>
+      <c r="E33">
+        <v>25</v>
+      </c>
+      <c r="F33">
+        <v>75</v>
+      </c>
+      <c r="G33">
+        <v>25</v>
+      </c>
+      <c r="H33">
+        <v>75</v>
+      </c>
+      <c r="I33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>56</v>
+      </c>
+      <c r="E34">
+        <v>28</v>
+      </c>
+      <c r="F34">
+        <v>70</v>
+      </c>
+      <c r="G34">
+        <v>28.5</v>
+      </c>
+      <c r="H34">
+        <v>71.5</v>
+      </c>
+      <c r="I34">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>28</v>
+      </c>
+      <c r="D35">
+        <v>44</v>
+      </c>
+      <c r="E35">
+        <v>25</v>
+      </c>
+      <c r="F35">
+        <v>74</v>
+      </c>
+      <c r="G35">
+        <v>25</v>
+      </c>
+      <c r="H35">
+        <v>74</v>
+      </c>
+      <c r="I35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>27</v>
+      </c>
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>66</v>
+      </c>
+      <c r="G36">
+        <v>35</v>
+      </c>
+      <c r="H36">
+        <v>66</v>
+      </c>
+      <c r="I36">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>61</v>
+      </c>
+      <c r="E37">
+        <v>17</v>
+      </c>
+      <c r="F37">
+        <v>82</v>
+      </c>
+      <c r="G37">
+        <v>17</v>
+      </c>
+      <c r="H37">
+        <v>82</v>
+      </c>
+      <c r="I37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>26</v>
+      </c>
+      <c r="D38">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>43</v>
+      </c>
+      <c r="F38">
+        <v>57</v>
+      </c>
+      <c r="G38">
+        <v>43</v>
+      </c>
+      <c r="H38">
+        <v>57</v>
+      </c>
+      <c r="I38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>27</v>
+      </c>
+      <c r="E39">
+        <v>19</v>
+      </c>
+      <c r="F39">
+        <v>53</v>
+      </c>
+      <c r="G39">
+        <v>26.33</v>
+      </c>
+      <c r="H39">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="I39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>33</v>
+      </c>
+      <c r="D40">
+        <v>35</v>
+      </c>
+      <c r="E40">
+        <v>19</v>
+      </c>
+      <c r="F40">
+        <v>78</v>
+      </c>
+      <c r="G40">
+        <v>19</v>
+      </c>
+      <c r="H40">
+        <v>78</v>
+      </c>
+      <c r="I40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>21</v>
+      </c>
+      <c r="D41">
+        <v>41</v>
+      </c>
+      <c r="E41">
+        <v>24</v>
+      </c>
+      <c r="F41">
+        <v>68</v>
+      </c>
+      <c r="G41">
+        <v>26</v>
+      </c>
+      <c r="H41">
+        <v>74</v>
+      </c>
+      <c r="I41">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>38</v>
+      </c>
+      <c r="D42">
+        <v>21</v>
+      </c>
+      <c r="E42">
+        <v>21</v>
+      </c>
+      <c r="F42">
+        <v>74</v>
+      </c>
+      <c r="G42">
+        <v>22</v>
+      </c>
+      <c r="H42">
+        <v>78</v>
+      </c>
+      <c r="I42">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>26</v>
+      </c>
+      <c r="D43">
+        <v>33</v>
+      </c>
+      <c r="E43">
+        <v>27</v>
+      </c>
+      <c r="F43">
+        <v>72</v>
+      </c>
+      <c r="G43">
+        <v>27</v>
+      </c>
+      <c r="H43">
+        <v>72</v>
+      </c>
+      <c r="I43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>60</v>
+      </c>
+      <c r="E44">
+        <v>25</v>
+      </c>
+      <c r="F44">
+        <v>74</v>
+      </c>
+      <c r="G44">
+        <v>25</v>
+      </c>
+      <c r="H44">
+        <v>74</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>17</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>47</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>26</v>
+      </c>
+      <c r="F45">
+        <v>66</v>
+      </c>
+      <c r="G45">
+        <v>28.2</v>
+      </c>
+      <c r="H45">
+        <v>71.8</v>
+      </c>
+      <c r="I45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>16</v>
+      </c>
+      <c r="C46">
+        <v>28</v>
+      </c>
+      <c r="D46">
+        <v>39</v>
+      </c>
+      <c r="E46">
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <v>69</v>
+      </c>
+      <c r="G46">
+        <v>30</v>
+      </c>
+      <c r="H46">
+        <v>69</v>
+      </c>
+      <c r="I46">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>28</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <v>37</v>
+      </c>
+      <c r="F47">
+        <v>61</v>
+      </c>
+      <c r="G47">
+        <v>37</v>
+      </c>
+      <c r="H47">
+        <v>61</v>
+      </c>
+      <c r="I47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>38</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>54</v>
+      </c>
+      <c r="F48">
+        <v>44</v>
+      </c>
+      <c r="G48">
+        <v>54</v>
+      </c>
+      <c r="H48">
+        <v>44</v>
+      </c>
+      <c r="I48">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>43</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>30</v>
+      </c>
+      <c r="F49">
+        <v>67</v>
+      </c>
+      <c r="G49">
+        <v>30</v>
+      </c>
+      <c r="H49">
+        <v>67</v>
+      </c>
+      <c r="I49">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>44</v>
+      </c>
+      <c r="E50">
+        <v>27</v>
+      </c>
+      <c r="F50">
+        <v>72</v>
+      </c>
+      <c r="G50">
+        <v>27</v>
+      </c>
+      <c r="H50">
+        <v>72</v>
+      </c>
+      <c r="I50">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>18</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>90</v>
+      </c>
+      <c r="I51">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>11</v>
+      </c>
+      <c r="B52">
+        <v>17</v>
+      </c>
+      <c r="C52">
+        <v>32</v>
+      </c>
+      <c r="D52">
+        <v>33</v>
+      </c>
+      <c r="E52">
+        <v>29</v>
+      </c>
+      <c r="F52">
+        <v>71</v>
+      </c>
+      <c r="G52">
+        <v>29</v>
+      </c>
+      <c r="H52">
+        <v>71</v>
+      </c>
+      <c r="I52">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
